--- a/ExportTemplates/importQuestionTemplate.xlsx
+++ b/ExportTemplates/importQuestionTemplate.xlsx
@@ -117,7 +117,10 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>Content of the questions. E.g. Reading article content, Writing prompts, etc.</t>
+          <t>Content of the questions. E.g. Reading article content, Writing prompts, etc.
+1. Reading: If using image in content, fill the content with format "[&lt;filename.extension&gt;]". File must be available in file name column and zip file so that the image can be displayed
+2. This is required if type = reading/writing
+3. This can be empty if type = listening</t>
         </r>
       </text>
     </comment>
@@ -2097,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExportTemplates/importQuestionTemplate.xlsx
+++ b/ExportTemplates/importQuestionTemplate.xlsx
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1">
+    <comment ref="I5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1">
+    <comment ref="K5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>Online Test - Export Question</t>
   </si>
@@ -1681,6 +1681,12 @@
   </si>
   <si>
     <t>Conversation</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1801,6 +1807,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,32 +2110,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N25"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1">
+    <row r="1" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:15" ht="13.5" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2139,8 +2152,9 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="2:14" ht="21.75" customHeight="1">
+    <row r="3" spans="2:15" ht="21.75" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2154,636 +2168,666 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="5" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="2:15" ht="12.75" customHeight="1"/>
+    <row r="5" spans="2:15" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="105">
+    <row r="6" spans="2:15" ht="105">
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="30">
+    <row r="7" spans="2:15" ht="30">
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>2</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30">
+    <row r="8" spans="2:15" ht="30">
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30">
+    <row r="9" spans="2:15" ht="30">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>2</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="409.5">
+    <row r="10" spans="2:15" ht="409.5">
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="45">
+    <row r="11" spans="2:15" ht="45">
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="30">
+    <row r="12" spans="2:15" ht="30">
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>2</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30">
+    <row r="13" spans="2:15" ht="30">
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="45">
+    <row r="14" spans="2:15" ht="45">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>2</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:15">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>2</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="75">
+    <row r="16" spans="2:15" ht="75">
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>2</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:15">
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>2</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="45">
+    <row r="18" spans="2:15" ht="45">
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>2</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>2</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:15">
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>2</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:15">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>2</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="30">
+    <row r="22" spans="2:15" ht="30">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>2</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="45">
+    <row r="23" spans="2:15" ht="45">
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>2</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="45">
+    <row r="24" spans="2:15" ht="45">
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>2</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="30">
+    <row r="25" spans="2:15" ht="30">
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>2</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="B2:O3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>SubType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>Source</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExportTemplates/importQuestionTemplate.xlsx
+++ b/ExportTemplates/importQuestionTemplate.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Data" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Source">Data!$D$2:INDEX(Data!$D$2:$D$1000,SUMPRODUCT(--(Data!$D$2:$D$1000&lt;&gt;"")))</definedName>
-    <definedName name="SubType">Data!$C$2:INDEX(Data!$C$2:$C$1000,SUMPRODUCT(--(Data!$C$2:$C$1000&lt;&gt;"")))</definedName>
-    <definedName name="Type">Data!$B$2:INDEX(Data!$B$2:$B$1000,SUMPRODUCT(--(Data!$B$2:$B$1000&lt;&gt;"")))</definedName>
+    <definedName name="Source">Data!$E$2:INDEX(Data!$E$2:$E$1000,SUMPRODUCT(--(Data!$E$2:$E$1000&lt;&gt;"")))</definedName>
+    <definedName name="SubType">Data!$D$2:INDEX(Data!$D$2:$D$1000,SUMPRODUCT(--(Data!$D$2:$D$1000&lt;&gt;"")))</definedName>
+    <definedName name="Type">Data!$C$2:INDEX(Data!$C$2:$C$1000,SUMPRODUCT(--(Data!$C$2:$C$1000&lt;&gt;"")))</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>Online Test - Export Question</t>
   </si>
@@ -1683,10 +1683,10 @@
     <t>Conversation</t>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1805,14 +1805,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,15 +2112,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -2137,38 +2137,38 @@
   <sheetData>
     <row r="1" spans="2:15" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1"/>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
@@ -2219,8 +2219,8 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>125</v>
+      <c r="C6" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -2247,8 +2247,8 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>125</v>
+      <c r="C7" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="8" spans="2:15" ht="30">
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="9" spans="2:15" ht="30">
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2347,7 +2347,7 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="11" spans="2:15" ht="45">
       <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="12" spans="2:15" ht="30">
       <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="13" spans="2:15" ht="30">
       <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="14" spans="2:15" ht="45">
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="16" spans="2:15" ht="75">
       <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -2581,8 +2581,8 @@
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>125</v>
+      <c r="C18" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>40</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="23" spans="2:15" ht="45">
       <c r="B23" s="5"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="24" spans="2:15" ht="45">
       <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="25" spans="2:15" ht="30">
       <c r="B25" s="5"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2839,22 +2839,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
